--- a/medicine/Mort/Peine_de_mort_au_Liban/Peine_de_mort_au_Liban.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Liban/Peine_de_mort_au_Liban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Liban la peine de mort est prévue par le code pénal, bien qu'aucune exécution n'ait eu lieu depuis 2004.
 Les méthodes prescrites par la loi sont la pendaison et le peloton d'exécution, bien que la pendaison ait été la méthode prédominante dans l'histoire libanaise. Au sein de la République libanaise, le Président a seul le pouvoir de gracier un détenu et tous les ordres d'exécution doivent être ratifiés par lui.
@@ -512,9 +524,11 @@
           <t>Crimes punis de la peine de mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les crimes passibles de la peine de morts comprennent[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les crimes passibles de la peine de morts comprennent :
 le meurtre ;
 l'espionnage ;
 la trahison ;
